--- a/biology/Histoire de la zoologie et de la botanique/René_Karel_Verheyen/René_Karel_Verheyen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/René_Karel_Verheyen/René_Karel_Verheyen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Karel_Verheyen</t>
+          <t>René_Karel_Verheyen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Karel Verheyen, né le 19 novembre 1907 à Borgerhout, mort le 22 octobre 1961 à Wilrijk, est un ornithologue et mammalogiste belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Karel_Verheyen</t>
+          <t>René_Karel_Verheyen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Verheyen s'oriente d'abord vers l'enseignement, obtenant en 1926 le diplôme d'instituteur à l'école normale de la ville d'Anvers, puis en 1930 celui de régent pour l'enseignement des sciences dans les écoles moyennes. Parallèlement, il poursuit ses études à l'Université de Gand et décroche sa licence de sciences zoologiques en 1937, ce qui lui permet de rejoindre le Muséum des sciences naturelles comme aide-naturaliste. Il obtient le doctorat en 1939 sur l'« étude des formes géographiques de la faune ornithologique belge ».
 À partir de 1940, il fait paraître son œuvre maîtresse en huit volumes sur l'avifaune de Belgique, publiée d'abord en néerlandais, puis en français :
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Karel_Verheyen</t>
+          <t>René_Karel_Verheyen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>René Van Tassel et Ludo Van Meel, « René Verheyen (1907-1961), notice biographique », Bulletin de l'Institut royal des sciences naturelles de Belgique, t. XXXVIII,‎ mai 1962, p. 1-14 (lire en ligne)
 René Van Tassel et Ludo Van Meel, « René Verheyen », Biographie nationale, vol. 30,‎ 1976, p. 810-813 (lire en ligne)</t>
